--- a/resources/templates/autopartes.xlsx
+++ b/resources/templates/autopartes.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="-20" windowWidth="27320" windowHeight="14900" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DATOS" sheetId="1" r:id="rId1"/>
+    <sheet name="FORMATO" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>Autoparte</t>
   </si>
@@ -30,9 +31,6 @@
     <t>Modelo</t>
   </si>
   <si>
-    <t>Familia</t>
-  </si>
-  <si>
     <t>N° N.C.M</t>
   </si>
   <si>
@@ -67,6 +65,15 @@
   </si>
   <si>
     <t>N° de Licencia de certificación</t>
+  </si>
+  <si>
+    <t>1.3.1</t>
+  </si>
+  <si>
+    <t>4203.30.00</t>
+  </si>
+  <si>
+    <t>Los campos sin indicación son libres</t>
   </si>
 </sst>
 </file>
@@ -115,7 +122,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -167,11 +174,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="53">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -197,6 +207,7 @@
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -222,6 +233,7 @@
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -551,33 +563,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -597,13 +608,13 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
@@ -622,9 +633,6 @@
       </c>
       <c r="O1" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -636,4 +644,102 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>